--- a/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Inflation_consumer_prices_for_the_United_States_FPCPITOTLZGUSA.xlsx
+++ b/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Inflation_consumer_prices_for_the_United_States_FPCPITOTLZGUSA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="129">
   <si>
     <t>realtime_start</t>
   </si>
@@ -28,7 +28,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>2021-08-03</t>
+    <t>2022-09-13</t>
   </si>
   <si>
     <t>1960-01-01</t>
@@ -214,6 +214,9 @@
     <t>2020-01-01</t>
   </si>
   <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
     <t>1.45797598627786</t>
   </si>
   <si>
@@ -395,6 +398,9 @@
   </si>
   <si>
     <t>1.23358439630637</t>
+  </si>
+  <si>
+    <t>4.69785886363739</t>
   </si>
 </sst>
 </file>
@@ -752,7 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -789,7 +795,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -806,7 +812,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -823,7 +829,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -840,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -857,7 +863,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -874,7 +880,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -891,7 +897,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -908,7 +914,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -925,7 +931,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -942,7 +948,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -959,7 +965,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -976,7 +982,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -993,7 +999,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1010,7 +1016,7 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1027,7 +1033,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1044,7 +1050,7 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1061,7 +1067,7 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1078,7 +1084,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1095,7 +1101,7 @@
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1112,7 +1118,7 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1129,7 +1135,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1146,7 +1152,7 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1163,7 +1169,7 @@
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1180,7 +1186,7 @@
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1197,7 +1203,7 @@
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1214,7 +1220,7 @@
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1231,7 +1237,7 @@
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1248,7 +1254,7 @@
         <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1265,7 +1271,7 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1282,7 +1288,7 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1299,7 +1305,7 @@
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1316,7 +1322,7 @@
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1333,7 +1339,7 @@
         <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1350,7 +1356,7 @@
         <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1367,7 +1373,7 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1384,7 +1390,7 @@
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1401,7 +1407,7 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1418,7 +1424,7 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1435,7 +1441,7 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1452,7 +1458,7 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1469,7 +1475,7 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1486,7 +1492,7 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1503,7 +1509,7 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1520,7 +1526,7 @@
         <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1537,7 +1543,7 @@
         <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1554,7 +1560,7 @@
         <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1571,7 +1577,7 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1588,7 +1594,7 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1605,7 +1611,7 @@
         <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1622,7 +1628,7 @@
         <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1639,7 +1645,7 @@
         <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1656,7 +1662,7 @@
         <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1673,7 +1679,7 @@
         <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1690,7 +1696,7 @@
         <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1707,7 +1713,7 @@
         <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1724,7 +1730,7 @@
         <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1741,7 +1747,7 @@
         <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1758,7 +1764,7 @@
         <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1775,7 +1781,7 @@
         <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1792,7 +1798,7 @@
         <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1809,7 +1815,24 @@
         <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
